--- a/数据整理/stocks/A股/科创板/688396-华润微.xlsx
+++ b/数据整理/stocks/A股/科创板/688396-华润微.xlsx
@@ -451,687 +451,927 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>124.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.9300</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>65.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0895</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>60.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.0430</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>49.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3227</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>49.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2877</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安智能生活混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>32.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6336</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>27.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3738</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1249</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001210</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘互联网灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7213</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5246</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009986</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5148</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4696</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安成长创新混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4242</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1689</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>009789</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>富安达科技创新混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>90.48</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>4.66</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009986</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>天弘创新领航混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009987</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>81.97</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>4.00</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003115</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>光大保德信诚鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003116</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>光大保德信诚鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009987</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>天弘创新领航混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>81.97</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>360006</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>光大保德信新增长混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>89.16</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001071</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华安媒体互联网混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>93.17</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>506005</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博时科创板三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>79.49</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005763</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中欧电子信息产业沪港深股票C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001210</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>天弘互联网灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>93.26</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002850</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方甑智混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002850</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>南方甑智混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>22.04</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001740</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>光大保德信中国制造2025灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004616</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中欧电子信息产业沪港深股票A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002256</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>金信行业优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>89.83</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>7.75</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>002863</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>金信深圳成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>93.86</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>8.85</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>003115</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>光大保德信诚鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>21.92</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>003116</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>光大保德信诚鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>21.92</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>588000</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华夏上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>99.43</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>588050</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>工银瑞信上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>98.68</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>588080</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>易方达上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>99.31</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>588090</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>华泰柏瑞上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>99.13</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>007872</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>金信稳健策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>89.87</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>8.99</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>006879</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>华安智能生活混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>007460</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>华安成长创新混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>93.06</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>008313</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>光大保德信研究精选混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>94.75</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>9</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1141,7 +1381,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1162,15 +1402,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005855</t>
+          <t>588000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中科沃土沃瑞灵活配置混合A</t>
+          <t>华夏上证科创板50成份ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>82.16</t>
+          <t>181.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.58</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>99.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.1893</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005856</t>
+          <t>588080</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中科沃土沃瑞灵活配置混合C</t>
+          <t>易方达上证科创板50成份ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>82.16</t>
+          <t>60.23</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.58</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7043</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007872</t>
+          <t>001071</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金信稳健策略灵活配置混合</t>
+          <t>华安媒体互联网混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>89.90</t>
+          <t>44.89</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8.86</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2804</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>165528</t>
+          <t>588090</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>信诚鼎利灵活配置混合（LOF）</t>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>53.26</t>
+          <t>40.66</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>99.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8378</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000549</t>
+          <t>588050</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安大国新经济股票</t>
+          <t>工银瑞信上证科创板50成份ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.92</t>
+          <t>37.11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6625</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>410006</t>
+          <t>006879</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华富策略精选混合</t>
+          <t>华安智能生活混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>71.94</t>
+          <t>20.64</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0526</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006879</t>
+          <t>506005</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华安智能生活混合</t>
+          <t>博时科创板三年定期开放混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>89.59</t>
+          <t>24.79</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9098</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001071</t>
+          <t>506001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华安媒体互联网混合</t>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>89.65</t>
+          <t>12.15</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
+          <t>96.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4884</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>506001</t>
+          <t>001210</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+          <t>天弘互联网灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>96.44</t>
+          <t>11.83</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>82.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4661</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>506005</t>
+          <t>007460</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>博时科创板三年定期开放混合</t>
+          <t>华安成长创新混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>85.38</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3114</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001210</t>
+          <t>004616</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天弘互联网灵活配置混合</t>
+          <t>中欧电子信息产业沪港深股票A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>82.16</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2818</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>007460</t>
+          <t>001322</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华安成长创新混合</t>
+          <t>东吴新趋势价值线灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>84.04</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001322</t>
+          <t>005763</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>东吴新趋势价值线灵活配置混合</t>
+          <t>中欧电子信息产业沪港深股票C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>93.62</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>4</v>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1546,25 +1926,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001323</t>
+          <t>519929</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>东吴移动互联灵活配置混合A</t>
+          <t>长信电子信息行业量化灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>002170</t>
+          <t>005495</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>东吴移动互联灵活配置混合C</t>
+          <t>创金合信科技成长主题股票A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001339</t>
+          <t>007872</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>兴银鼎新灵活配置混合</t>
+          <t>金信稳健策略灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>92.09</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1630,25 +2040,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>519929</t>
+          <t>001323</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>长信电子信息行业量化灵活配置混合</t>
+          <t>东吴移动互联灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>92.59</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5.56</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>588000</t>
+          <t>005855</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华夏上证科创板50成份ETF</t>
+          <t>中科沃土沃瑞灵活配置混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>99.66</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>7</v>
+          <t>82.16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>588050</t>
+          <t>002863</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>工银瑞信上证科创板50成份ETF</t>
+          <t>金信深圳成长灵活配置混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>99.20</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>7</v>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>588080</t>
+          <t>005496</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>易方达上证科创板50成份ETF</t>
+          <t>创金合信科技成长主题股票C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>99.50</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>7</v>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>588090</t>
+          <t>165528</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华泰柏瑞上证科创板50成份ETF</t>
+          <t>信诚鼎利灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>99.78</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>7</v>
+          <t>53.26</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>002256</t>
+          <t>000549</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>金信行业优选灵活配置混合</t>
+          <t>华安大国新经济股票</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>89.92</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>8.82</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>2</v>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>005495</t>
+          <t>001339</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>创金合信科技成长主题股票A</t>
+          <t>兴银鼎新灵活配置混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>90.98</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>10</v>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>005496</t>
+          <t>002256</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>创金合信科技成长主题股票C</t>
+          <t>金信行业优选灵活配置混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>90.98</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>10</v>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>002863</t>
+          <t>005856</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>金信深圳成长灵活配置混合</t>
+          <t>中科沃土沃瑞灵活配置混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>93.42</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>9.22</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>1</v>
+          <t>82.16</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>004616</t>
+          <t>410006</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>中欧电子信息产业沪港深股票A</t>
+          <t>华富策略精选混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>92.81</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>5</v>
+          <t>71.94</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -1910,25 +2420,29 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>005763</t>
+          <t>002170</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中欧电子信息产业沪港深股票C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>92.81</t>
-        </is>
-      </c>
+          <t>东吴移动互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
         <v>5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688396-华润微.xlsx
+++ b/数据整理/stocks/A股/科创板/688396-华润微.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2428,7 +2429,6 @@
           <t>东吴移动互联灵活配置混合C</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
           <t>93.58</t>
@@ -2444,6 +2444,1544 @@
       </c>
       <c r="H28" t="n">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河创新成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>147.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.6567</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>201.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.2134</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>113.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.5078</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>45.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3572</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010662</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>60.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9803</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010966</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国成长领航混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>60.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7297</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>48.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4748</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安智能生活混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3210</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>37.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1714</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0926</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7953</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001210</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘互联网灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5861</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安成长创新混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4108</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3714</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3335</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1356</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1210</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>61.07</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1018</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005049</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160812</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长盛同益成长回报灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>61.07</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005050</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010303</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>64.50</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007251</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>32.18</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>72.30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000549</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安大国新经济股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000757</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华富智慧城市灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>080002</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010304</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>78.34</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>740001</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长安宏观策略混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.91</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001657</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长安鑫富领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>161718</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商沪深300高贝塔指数</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>163821</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中银沪深300等权重指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688396-华润微.xlsx
+++ b/数据整理/stocks/A股/科创板/688396-华润微.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3987,4 +3988,628 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2756</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006424</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1255</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006425</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>59.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005090</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>59.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>72.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159897</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信中证物联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>96.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000549</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安大国新经济股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005091</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004212</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融量化智选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004783</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688396-华润微.xlsx
+++ b/数据整理/stocks/A股/科创板/688396-华润微.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4612,4 +4613,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>39</v>
+      </c>
+      <c r="D3" t="n">
+        <v>36.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>27</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20.81</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>24.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688396-华润微.xlsx
+++ b/数据整理/stocks/A股/科创板/688396-华润微.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4621,7 +4622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4632,17 +4633,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4652,14 +4673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.75</v>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2988</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -4668,14 +4711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>39</v>
-      </c>
-      <c r="D3" t="n">
-        <v>36.09</v>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -4684,14 +4749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>27</v>
-      </c>
-      <c r="D4" t="n">
-        <v>20.81</v>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -4700,13 +4787,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000549</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安大国新经济股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>39</v>
+      </c>
+      <c r="D4" t="n">
+        <v>36.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20.81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>23</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>24.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688396-华润微.xlsx
+++ b/数据整理/stocks/A股/科创板/688396-华润微.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4868,7 +4869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4879,17 +4880,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4899,14 +4920,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.49</v>
+          <t>012412</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>70.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5433</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -4915,14 +4958,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.75</v>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2426</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -4931,14 +4996,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>39</v>
-      </c>
-      <c r="D4" t="n">
-        <v>36.09</v>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -4947,14 +5034,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>27</v>
-      </c>
-      <c r="D5" t="n">
-        <v>20.81</v>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -4963,13 +5072,281 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000549</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安大国新经济股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>710002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富安达策略精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>63.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>39</v>
+      </c>
+      <c r="D5" t="n">
+        <v>36.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>27</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20.81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>23</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>24.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688396-华润微.xlsx
+++ b/数据整理/stocks/A股/科创板/688396-华润微.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5229,7 +5230,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5240,17 +5241,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5260,14 +5281,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.99</v>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>282.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.5791</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -5276,14 +5319,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.49</v>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>127.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.3314</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -5292,14 +5357,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.75</v>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5021</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -5308,14 +5395,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>39</v>
-      </c>
-      <c r="D5" t="n">
-        <v>36.09</v>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0628</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -5324,14 +5433,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>27</v>
-      </c>
-      <c r="D6" t="n">
-        <v>20.81</v>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5295</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -5340,13 +5471,487 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2155</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>588280</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安上证科创板50ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011351</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011352</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>39</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.09</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>27</v>
+      </c>
+      <c r="D7" t="n">
+        <v>20.81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>23</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>24.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688396-华润微.xlsx
+++ b/数据整理/stocks/A股/科创板/688396-华润微.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>17.56</v>
+        <v>16.46</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>0.99</v>
+        <v>17.56</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.49</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.75</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>36.09</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D7" t="n">
-        <v>20.81</v>
+        <v>36.09</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>27</v>
+      </c>
+      <c r="D8" t="n">
+        <v>20.81</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>23</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>24.01</v>
       </c>
     </row>
@@ -666,22 +683,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>282.57</t>
+          <t>293.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.33</t>
+          <t>99.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>9.5791</t>
+          <t>9.3027</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -704,22 +721,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>127.77</t>
+          <t>123.49</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>99.87</t>
+          <t>99.91</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.3314</t>
+          <t>3.9270</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -742,22 +759,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>44.44</t>
+          <t>41.60</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>99.48</t>
+          <t>99.18</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.5021</t>
+          <t>1.3146</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -780,22 +797,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>32.11</t>
+          <t>28.32</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>99.57</t>
+          <t>99.59</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.0628</t>
+          <t>0.8892</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -813,27 +830,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国联安上证科创板50成份交易型开放式指数证券投资基金</t>
+          <t>国联安上证科创板50成份ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>15.90</t>
+          <t>14.73</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>98.02</t>
+          <t>98.48</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.5295</t>
+          <t>0.4610</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -846,36 +863,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>080012</t>
+          <t>588100</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长盛电子信息产业混合</t>
+          <t>嘉实上证科创板新一代信息技术ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.32</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>99.40</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2155</t>
+          <t>0.1823</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -889,27 +906,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发上证科创板50成份交易型开放式指数证券投资基金</t>
+          <t>广发上证科创板50成份ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>98.95</t>
+          <t>99.30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1048</t>
+          <t>0.1049</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -922,36 +939,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001120</t>
+          <t>588260</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+          <t>华安上证科创板新一代信息技术ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>83.23</t>
+          <t>98.52</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0706</t>
+          <t>0.0856</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -960,36 +977,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>588280</t>
+          <t>013755</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华安上证科创板50ETF</t>
+          <t>中银证券内需增长混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>98.39</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>5.29</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0574</t>
+          <t>0.0741</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -998,36 +1015,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011351</t>
+          <t>588280</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>金鹰年年邮益一年持有期混合A</t>
+          <t>华安上证科创板50ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>28.25</t>
+          <t>98.33</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0474</t>
+          <t>0.0448</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1036,36 +1053,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001121</t>
+          <t>588150</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+          <t>南方上证科创板50成份ETF</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>83.23</t>
+          <t>98.91</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0396</t>
+          <t>0.0312</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1074,32 +1091,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010307</t>
+          <t>004205</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>西藏东财信息产业精选混合A</t>
+          <t>东方支柱产业灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>87.96</t>
+          <t>83.21</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0081</t>
+          <t>0.0286</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1112,36 +1129,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>011352</t>
+          <t>013756</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>金鹰年年邮益一年持有期混合C</t>
+          <t>中银证券内需增长混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>28.25</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>5.29</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0044</t>
+          <t>0.0148</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1150,36 +1167,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010308</t>
+          <t>001708</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>西藏东财信息产业精选混合C</t>
+          <t>东兴改革精选灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>87.96</t>
+          <t>90.16</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0025</t>
+          <t>0.0008</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1188,6 +1205,594 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>282.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.5791</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>127.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.3314</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5021</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0628</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5295</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2155</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>588280</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安上证科创板50ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011351</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011352</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1547,7 +2152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1793,7 +2398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2417,7 +3022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3955,7 +4560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5030,7 +5635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688396-华润微.xlsx
+++ b/数据整理/stocks/A股/科创板/688396-华润微.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>16.46</v>
+        <v>25.59</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>17.56</v>
+        <v>16.46</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>0.99</v>
+        <v>17.56</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.49</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.75</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>36.09</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D8" t="n">
-        <v>20.81</v>
+        <v>36.09</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,960 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>27</v>
+      </c>
+      <c r="D9" t="n">
+        <v>20.81</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>23</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>24.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>124.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.9300</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>65.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0895</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>60.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.0430</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>49.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3227</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>49.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2877</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安智能生活混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>32.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6336</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>27.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3738</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1249</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001210</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘互联网灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7213</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5246</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009986</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5148</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4696</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安成长创新混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4242</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1689</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009987</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003115</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>光大保德信诚鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003116</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>光大保德信诚鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002850</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方甑智混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -622,7 +1569,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,12 +1630,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>293.46</t>
+          <t>508.27</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.43</t>
+          <t>99.65</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -698,11 +1645,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>9.3027</t>
+          <t>16.1122</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -721,26 +1668,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>123.49</t>
+          <t>169.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>99.91</t>
+          <t>99.89</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.9270</t>
+          <t>5.2424</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -759,26 +1706,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>41.60</t>
+          <t>54.91</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>99.18</t>
+          <t>99.41</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.3146</t>
+          <t>1.6967</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -797,26 +1744,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>28.32</t>
+          <t>35.47</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>99.59</t>
+          <t>99.51</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.8892</t>
+          <t>1.0996</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -835,26 +1782,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14.73</t>
+          <t>18.37</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>98.48</t>
+          <t>98.23</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4610</t>
+          <t>0.5603</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -863,36 +1810,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>588100</t>
+          <t>588060</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>嘉实上证科创板新一代信息技术ETF</t>
+          <t>广发上证科创板50成份ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>7.51</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>99.40</t>
+          <t>99.67</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1823</t>
+          <t>0.2328</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -901,36 +1848,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>588060</t>
+          <t>588100</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发上证科创板50成份ETF</t>
+          <t>嘉实上证科创板新一代信息技术ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>99.30</t>
+          <t>99.44</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1049</t>
+          <t>0.2141</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -939,32 +1886,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>588260</t>
+          <t>588200</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华安上证科创板新一代信息技术ETF</t>
+          <t>嘉实上证科创板芯片ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>98.52</t>
+          <t>98.63</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>6.55</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0856</t>
+          <t>0.1598</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -977,36 +1924,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>013755</t>
+          <t>588260</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中银证券内需增长混合A</t>
+          <t>华安上证科创板新一代信息技术ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>98.76</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0741</t>
+          <t>0.0909</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1015,36 +1962,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>588280</t>
+          <t>588290</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华安上证科创板50ETF</t>
+          <t>华安上证科创板芯片ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>98.33</t>
+          <t>98.03</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0448</t>
+          <t>0.0650</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1053,36 +2000,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>588150</t>
+          <t>588280</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>南方上证科创板50成份ETF</t>
+          <t>华安上证科创板50ETF</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>98.91</t>
+          <t>98.54</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0312</t>
+          <t>0.0511</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1091,32 +2038,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>004205</t>
+          <t>588150</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>东方支柱产业灵活配置混合</t>
+          <t>南方上证科创板50成份ETF</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>83.21</t>
+          <t>99.06</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0286</t>
+          <t>0.0368</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1129,32 +2076,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>013756</t>
+          <t>165528</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中银证券内需增长混合C</t>
+          <t>信诚鼎利灵活配置混合（LOF）A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>89.13</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0148</t>
+          <t>0.0149</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1167,35 +2114,149 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>011254</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015937</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011255</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>001708</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>东兴改革精选灵活配置混合</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>90.16</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>0.0008</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H18" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1271,22 +2332,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>282.57</t>
+          <t>293.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.33</t>
+          <t>99.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>9.5791</t>
+          <t>9.3027</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1309,22 +2370,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>127.77</t>
+          <t>123.49</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>99.87</t>
+          <t>99.91</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.3314</t>
+          <t>3.9270</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1347,22 +2408,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>44.44</t>
+          <t>41.60</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>99.48</t>
+          <t>99.18</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.5021</t>
+          <t>1.3146</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1385,22 +2446,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>32.11</t>
+          <t>28.32</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>99.57</t>
+          <t>99.59</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.0628</t>
+          <t>0.8892</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1418,27 +2479,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国联安上证科创板50成份交易型开放式指数证券投资基金</t>
+          <t>国联安上证科创板50成份ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>15.90</t>
+          <t>14.73</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>98.02</t>
+          <t>98.48</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.5295</t>
+          <t>0.4610</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1451,36 +2512,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>080012</t>
+          <t>588100</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长盛电子信息产业混合</t>
+          <t>嘉实上证科创板新一代信息技术ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.32</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>99.40</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2155</t>
+          <t>0.1823</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1494,27 +2555,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发上证科创板50成份交易型开放式指数证券投资基金</t>
+          <t>广发上证科创板50成份ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>98.95</t>
+          <t>99.30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1048</t>
+          <t>0.1049</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1527,36 +2588,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001120</t>
+          <t>588260</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+          <t>华安上证科创板新一代信息技术ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>83.23</t>
+          <t>98.52</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0706</t>
+          <t>0.0856</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1565,36 +2626,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>588280</t>
+          <t>013755</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华安上证科创板50ETF</t>
+          <t>中银证券内需增长混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>98.39</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>5.29</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0574</t>
+          <t>0.0741</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1603,36 +2664,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011351</t>
+          <t>588280</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>金鹰年年邮益一年持有期混合A</t>
+          <t>华安上证科创板50ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>28.25</t>
+          <t>98.33</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0474</t>
+          <t>0.0448</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1641,36 +2702,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001121</t>
+          <t>588150</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+          <t>南方上证科创板50成份ETF</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>83.23</t>
+          <t>98.91</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0396</t>
+          <t>0.0312</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1679,32 +2740,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010307</t>
+          <t>004205</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>西藏东财信息产业精选混合A</t>
+          <t>东方支柱产业灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>87.96</t>
+          <t>83.21</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0081</t>
+          <t>0.0286</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1717,36 +2778,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>011352</t>
+          <t>013756</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>金鹰年年邮益一年持有期混合C</t>
+          <t>中银证券内需增长混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>28.25</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>5.29</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0044</t>
+          <t>0.0148</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1755,36 +2816,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010308</t>
+          <t>001708</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>西藏东财信息产业精选混合C</t>
+          <t>东兴改革精选灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>87.96</t>
+          <t>90.16</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0025</t>
+          <t>0.0008</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1793,6 +2854,594 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>282.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.5791</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>127.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.3314</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5021</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0628</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5295</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2155</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>588280</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安上证科创板50ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011351</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011352</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2152,7 +3801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2398,7 +4047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3022,7 +4671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4560,7 +6209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5633,934 +7282,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>588000</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>124.58</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.43</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>5.9300</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>588080</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>65.18</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99.31</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.0895</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001071</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华安媒体互联网混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>60.02</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.17</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>3.0430</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>588050</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>工银瑞信上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>49.21</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>98.68</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.3227</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>588090</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华泰柏瑞上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>49.84</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>99.13</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2.2877</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006879</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华安智能生活混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>32.22</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.6336</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>506005</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>博时科创板三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>27.98</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>79.49</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.3738</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>360006</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>光大保德信新增长混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>20.16</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>89.16</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.1249</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001210</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>天弘互联网灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>16.32</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.26</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.7213</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001740</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>光大保德信中国制造2025灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>11.58</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.5246</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009986</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>天弘创新领航混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>12.87</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>81.97</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.5148</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>004616</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中欧电子信息产业沪港深股票A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>6.67</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.4696</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>007460</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华安成长创新混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>8.40</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.06</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.4242</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>008313</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>光大保德信研究精选混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.75</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1689</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005763</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中欧电子信息产业沪港深股票C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1204</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009789</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>富安达科技创新混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>90.48</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0564</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002863</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>金信深圳成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.86</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>8.85</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0487</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>007872</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>金信稳健策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>89.87</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>8.99</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0476</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>009987</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>天弘创新领航混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>81.97</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0396</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>003115</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>光大保德信诚鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>6.73</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>21.92</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0310</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>003116</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>光大保德信诚鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>21.92</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0206</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>002256</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>金信行业优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>89.83</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>7.75</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0116</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>002850</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>南方甑智混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>22.04</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>